--- a/Reports/Construction and Architecture/Conclusion for Construction and Architecture.xlsx
+++ b/Reports/Construction and Architecture/Conclusion for Construction and Architecture.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\108 Survey Project\Reports\Construction and Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97DD1AD-0630-4BDB-8D92-E71D5196F83E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2771F316-59D8-48C6-9A26-2420D2FC4AB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -1176,11 +1176,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43649.635432175928" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="4" xr:uid="{71D799CB-E224-4465-9D51-067E7FDDA7EA}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43657.613341203702" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="4" xr:uid="{0E38397C-CD94-46E5-B551-64B9550E760A}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
-  <cacheFields count="43">
+  <cacheFields count="55">
     <cacheField name="Timestamp" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-06-14T14:57:31" maxDate="2019-07-02T04:59:01"/>
     </cacheField>
@@ -1309,6 +1309,42 @@
     </cacheField>
     <cacheField name="What kind of skills does your Company or Organization require?" numFmtId="0">
       <sharedItems longText="1"/>
+    </cacheField>
+    <cacheField name="Column1" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column2" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column3" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column4" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column5" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column6" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column7" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column8" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column9" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column10" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column11" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column12" numFmtId="0">
+      <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1364,7 +1400,19 @@
     <s v="ວິຊາການ"/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈັດການເວລາ, ທັກສະດ້ານການຈູງໃຈ"/>
+    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ"/>
+    <s v=" ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ"/>
+    <s v=" ທັກສະດ້ານແນວຄວາມຄິດສາກົນ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v=" ທັກສະດ້ານການຈູງໃຈ"/>
   </r>
   <r>
     <d v="2019-06-17T17:02:30"/>
@@ -1409,7 +1457,19 @@
     <m/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-25T14:32:39"/>
@@ -1455,6 +1515,18 @@
     <m/>
     <m/>
     <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານການເວົ້າຕໍ່ໜ້າມວນຊົນ, ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈັດການເວລາ, ທັກສະດ້ານການຈູງໃຈ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-07-02T04:59:01"/>
@@ -1499,15 +1571,27 @@
     <s v="ນະຄອນຫລວງວຽງຈັນ"/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v="ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E65D4E9-9FF6-4876-9920-5C456F31BEA5}" name="RawData" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{411B47AC-B33D-4409-BA45-112466321049}" name="RawData" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="43">
+  <pivotFields count="55">
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1517,6 +1601,18 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1950,11 +2046,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1A9D90-0904-4F32-8145-42FA0665D364}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC6D316-CAC7-4505-9F8B-EB4851A5C549}">
   <dimension ref="A3:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2004,7 +2100,7 @@
   </sheetPr>
   <dimension ref="A1:BO6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AQ5" sqref="AQ5:AV5"/>
     </sheetView>
